--- a/data/trans_orig/P62A$invalidez-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P62A$invalidez-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>27958</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18994</v>
+        <v>19241</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39625</v>
+        <v>38748</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1424921080647663</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09680739504713197</v>
+        <v>0.09806233870788221</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2019544516909313</v>
+        <v>0.1974854053156187</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -765,19 +765,19 @@
         <v>20676</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13360</v>
+        <v>13446</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30764</v>
+        <v>30400</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09177355375247528</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05930289333220602</v>
+        <v>0.05968264749750803</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1365513611619102</v>
+        <v>0.1349370319695189</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -786,19 +786,19 @@
         <v>48634</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37241</v>
+        <v>36294</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63961</v>
+        <v>62286</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1153829739022243</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08835307255167044</v>
+        <v>0.08610655939461853</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1517464101724562</v>
+        <v>0.1477721694758476</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>164483</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>152501</v>
+        <v>153785</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>173910</v>
+        <v>174002</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8383123378033794</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7772460112736042</v>
+        <v>0.7837891750441535</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8863611343992017</v>
+        <v>0.8868281165620414</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -836,19 +836,19 @@
         <v>68673</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54324</v>
+        <v>55145</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>83496</v>
+        <v>82060</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3048171878442223</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2411282259240611</v>
+        <v>0.244769470230189</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3706128271574725</v>
+        <v>0.3642365186298905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>240</v>
@@ -857,19 +857,19 @@
         <v>233156</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>212382</v>
+        <v>213257</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>252256</v>
+        <v>253312</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.553158476629473</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5038736575405486</v>
+        <v>0.505947885925399</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5984735071948838</v>
+        <v>0.6009790959368516</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5319</v>
+        <v>6126</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.008872617145943696</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02710968930428407</v>
+        <v>0.03122120456425071</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -907,19 +907,19 @@
         <v>16858</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10016</v>
+        <v>10682</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25896</v>
+        <v>27128</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07482781708823819</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04445680165827588</v>
+        <v>0.04741434038984588</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1149434432401794</v>
+        <v>0.1204106450296671</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -928,19 +928,19 @@
         <v>18599</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11548</v>
+        <v>11746</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28402</v>
+        <v>28377</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04412575849030666</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02739646840327685</v>
+        <v>0.02786671864104931</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06738394839209232</v>
+        <v>0.06732434858061397</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6608</v>
+        <v>6152</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0103229369859105</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0336762288533615</v>
+        <v>0.03135212323897987</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -978,19 +978,19 @@
         <v>121116</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>106395</v>
+        <v>105600</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>136549</v>
+        <v>135826</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5375950668517731</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4722520406508803</v>
+        <v>0.4687257459598594</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6060990174160832</v>
+        <v>0.6028904407609705</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -999,19 +999,19 @@
         <v>123141</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104607</v>
+        <v>103798</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>142031</v>
+        <v>141154</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2921505857136464</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2481792620782834</v>
+        <v>0.2462587734833955</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3369654338400398</v>
+        <v>0.3348856580509831</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>27817</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19092</v>
+        <v>19052</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39228</v>
+        <v>39306</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1126630012986037</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07732443800366856</v>
+        <v>0.07716522001378298</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1588790573718497</v>
+        <v>0.1591943917126089</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1053,19 +1053,19 @@
         <v>9738</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4831</v>
+        <v>4950</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17665</v>
+        <v>17604</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05752417831378219</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02853412896278579</v>
+        <v>0.02923719468184611</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1043453240848779</v>
+        <v>0.1039843783391872</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>37</v>
@@ -1074,19 +1074,19 @@
         <v>37555</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26618</v>
+        <v>27452</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>50262</v>
+        <v>50157</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09023464246412141</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06395616584295362</v>
+        <v>0.06595929313190133</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1207656902260719</v>
+        <v>0.1205134868898678</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>218104</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>206019</v>
+        <v>206540</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>226610</v>
+        <v>227204</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8833568305365298</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8344094242007695</v>
+        <v>0.8365213669522116</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9178046761746727</v>
+        <v>0.9202111806382972</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>68</v>
@@ -1124,19 +1124,19 @@
         <v>70591</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>57204</v>
+        <v>58563</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>84054</v>
+        <v>84240</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4169752346189783</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.337899645077098</v>
+        <v>0.3459294117934193</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4965004094920457</v>
+        <v>0.4975964525365724</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>293</v>
@@ -1145,19 +1145,19 @@
         <v>288695</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>268895</v>
+        <v>269522</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>306591</v>
+        <v>306253</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6936506812065595</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6460762294864201</v>
+        <v>0.6475823541718166</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7366492504954592</v>
+        <v>0.7358370561345601</v>
       </c>
     </row>
     <row r="10">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5893</v>
+        <v>5013</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003980168164866521</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0238683256412876</v>
+        <v>0.02030495984891045</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1195,19 +1195,19 @@
         <v>5618</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2106</v>
+        <v>1945</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12778</v>
+        <v>12210</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03318505887199802</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01244144600398445</v>
+        <v>0.01148964126871903</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07547907264093111</v>
+        <v>0.07212298335534603</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1216,19 +1216,19 @@
         <v>6601</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13011</v>
+        <v>13819</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0158595978124978</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005871346211068242</v>
+        <v>0.005868801813913561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03126155149979225</v>
+        <v>0.03320224186795673</v>
       </c>
     </row>
     <row r="11">
@@ -1258,19 +1258,19 @@
         <v>86602</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>72873</v>
+        <v>73742</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>98733</v>
+        <v>99406</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.511549887609381</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4304527754025461</v>
+        <v>0.4355901576267605</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5832050858753102</v>
+        <v>0.5871808184661084</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>83</v>
@@ -1279,19 +1279,19 @@
         <v>86602</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>70374</v>
+        <v>71349</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>105372</v>
+        <v>103747</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2080788783648971</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1690881460326482</v>
+        <v>0.1714312276402284</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2531772768645074</v>
+        <v>0.2492739806858481</v>
       </c>
     </row>
     <row r="12">
@@ -1315,16 +1315,16 @@
         <v>5000</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17782</v>
+        <v>16656</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04987391294784085</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02533767611397029</v>
+        <v>0.02533440198290547</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0901039355071033</v>
+        <v>0.08439966350767988</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1333,19 +1333,19 @@
         <v>10429</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5443</v>
+        <v>4976</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17621</v>
+        <v>17819</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07902076295695248</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04123803639937854</v>
+        <v>0.03770431561878868</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1335098672936635</v>
+        <v>0.1350081226456897</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -1354,19 +1354,19 @@
         <v>20272</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12795</v>
+        <v>12747</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>30403</v>
+        <v>30006</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06155466219880226</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0388521921537838</v>
+        <v>0.03870557843039699</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09231777968455041</v>
+        <v>0.09111184490701586</v>
       </c>
     </row>
     <row r="13">
@@ -1383,19 +1383,19 @@
         <v>185723</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>177326</v>
+        <v>178171</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>190773</v>
+        <v>190808</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9410854894932874</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8985339414186326</v>
+        <v>0.9028187270204022</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.966672775998225</v>
+        <v>0.9668501133576251</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -1404,19 +1404,19 @@
         <v>53733</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42685</v>
+        <v>42519</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65913</v>
+        <v>65775</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4071291279254192</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3234179926251255</v>
+        <v>0.322160978539953</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.499416032545043</v>
+        <v>0.4983643543424012</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>242</v>
@@ -1425,19 +1425,19 @@
         <v>239456</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>221803</v>
+        <v>220945</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>254570</v>
+        <v>254298</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7270997459745128</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6734986559633349</v>
+        <v>0.670893352153477</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.772993346090454</v>
+        <v>0.7721680759151502</v>
       </c>
     </row>
     <row r="14">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6383</v>
+        <v>5515</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00904059755887178</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03234232926068915</v>
+        <v>0.02794327682325885</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1475,19 +1475,19 @@
         <v>3757</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8811</v>
+        <v>8592</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0284661625898339</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007465033551858404</v>
+        <v>0.007377680211618069</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06675583539441328</v>
+        <v>0.06510188467137053</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1496,19 +1496,19 @@
         <v>5541</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1997</v>
+        <v>1850</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11256</v>
+        <v>11280</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0168254921225718</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006064592097828991</v>
+        <v>0.005617915510610351</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03417715698454722</v>
+        <v>0.03425081379657256</v>
       </c>
     </row>
     <row r="15">
@@ -1538,19 +1538,19 @@
         <v>65940</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>54605</v>
+        <v>54597</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>78004</v>
+        <v>77733</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4996143307866965</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4137335453129528</v>
+        <v>0.4136746510068919</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5910267031025398</v>
+        <v>0.5889730424362505</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>61</v>
@@ -1559,19 +1559,19 @@
         <v>65939</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>52490</v>
+        <v>52887</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>82309</v>
+        <v>82605</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2002229989958412</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1593839874743439</v>
+        <v>0.1605901977127406</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2499301070691461</v>
+        <v>0.250827756444808</v>
       </c>
     </row>
     <row r="16">
@@ -1592,19 +1592,19 @@
         <v>4583</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1180</v>
+        <v>1053</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11112</v>
+        <v>10772</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06518080853935959</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01677582726009887</v>
+        <v>0.01497485929121574</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1580318453092221</v>
+        <v>0.1531961034438325</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1613,19 +1613,19 @@
         <v>4423</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1136</v>
+        <v>1111</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9694</v>
+        <v>9887</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1293241658615165</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03320455077257016</v>
+        <v>0.03247892154064126</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2834798350692241</v>
+        <v>0.2891044161011714</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1634,19 +1634,19 @@
         <v>9006</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4447</v>
+        <v>3664</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16883</v>
+        <v>15829</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08616965020423914</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04255244052377118</v>
+        <v>0.03505453618029606</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1615406777770665</v>
+        <v>0.1514535821770137</v>
       </c>
     </row>
     <row r="17">
@@ -1663,19 +1663,19 @@
         <v>64667</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>57721</v>
+        <v>58411</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>68234</v>
+        <v>68297</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9196817277892329</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.820897225170569</v>
+        <v>0.830717422680207</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9704184916352684</v>
+        <v>0.971308955557205</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -1684,19 +1684,19 @@
         <v>23282</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17054</v>
+        <v>17584</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27912</v>
+        <v>28417</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.680809919513109</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4986962023697019</v>
+        <v>0.5141887669174119</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8161808048484066</v>
+        <v>0.8309564047849204</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>91</v>
@@ -1705,19 +1705,19 @@
         <v>87949</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>79518</v>
+        <v>80302</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>94490</v>
+        <v>94928</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8415186447917176</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7608487287188684</v>
+        <v>0.7683538520078428</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9041065695616549</v>
+        <v>0.9082939294627911</v>
       </c>
     </row>
     <row r="18">
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7742</v>
+        <v>5315</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01513746367140756</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1101047631103659</v>
+        <v>0.07558695835009212</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4966</v>
+        <v>4355</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02833737794897298</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1452270830879008</v>
+        <v>0.1273608514362535</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>7234</v>
+        <v>6380</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01945670922274858</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06922090924874762</v>
+        <v>0.06104863526311171</v>
       </c>
     </row>
     <row r="19">
@@ -1818,19 +1818,19 @@
         <v>5524</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2141</v>
+        <v>2196</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11185</v>
+        <v>11246</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1615285366764016</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06259336335009524</v>
+        <v>0.06421364065713586</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3270803898111163</v>
+        <v>0.3288598326145312</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1839,19 +1839,19 @@
         <v>5524</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2053</v>
+        <v>1868</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11900</v>
+        <v>11807</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0528549957812947</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01964822343347935</v>
+        <v>0.01786984262865259</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1138589285960403</v>
+        <v>0.1129713389831712</v>
       </c>
     </row>
     <row r="20">
@@ -1872,19 +1872,19 @@
         <v>70201</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>55490</v>
+        <v>54345</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87148</v>
+        <v>87968</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09876635992485204</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07806920454446888</v>
+        <v>0.07645890362220069</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1226098653136003</v>
+        <v>0.1237640757258364</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>44</v>
@@ -1893,19 +1893,19 @@
         <v>45266</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33920</v>
+        <v>33670</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>60480</v>
+        <v>60521</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08072231597182249</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06048964570045316</v>
+        <v>0.06004311740857229</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1078535037963177</v>
+        <v>0.1079264641560576</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>112</v>
@@ -1914,19 +1914,19 @@
         <v>115467</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>94422</v>
+        <v>94842</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>136963</v>
+        <v>138424</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0908087198673449</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0742581636113399</v>
+        <v>0.07458830501343013</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1077140202180992</v>
+        <v>0.1088630512218411</v>
       </c>
     </row>
     <row r="21">
@@ -1943,19 +1943,19 @@
         <v>632977</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>616199</v>
+        <v>613802</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>649195</v>
+        <v>649158</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8905445166494205</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8669398607809156</v>
+        <v>0.8635678388940565</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9133624266363594</v>
+        <v>0.9133100183265443</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>212</v>
@@ -1964,19 +1964,19 @@
         <v>216280</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>192635</v>
+        <v>194788</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>240524</v>
+        <v>239096</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3856874330553259</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3435217593096446</v>
+        <v>0.347362482186331</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4289228150303417</v>
+        <v>0.4263747074044657</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>866</v>
@@ -1985,19 +1985,19 @@
         <v>849256</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>815504</v>
+        <v>809827</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>881613</v>
+        <v>879112</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6678964804230358</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6413522431287164</v>
+        <v>0.6368870859798079</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6933432943324115</v>
+        <v>0.6913767391886314</v>
       </c>
     </row>
     <row r="22">
@@ -2014,19 +2014,19 @@
         <v>5572</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1851</v>
+        <v>1931</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11299</v>
+        <v>11867</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007839509232075012</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002603790332640423</v>
+        <v>0.002716554916356629</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01589624238544934</v>
+        <v>0.01669570226332101</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -2035,19 +2035,19 @@
         <v>27202</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17501</v>
+        <v>17368</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38454</v>
+        <v>38201</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04850912301674241</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03120891424844785</v>
+        <v>0.03097239489253084</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06857358498138334</v>
+        <v>0.06812228118117808</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -2056,19 +2056,19 @@
         <v>32774</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22507</v>
+        <v>22608</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45086</v>
+        <v>46034</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02577529727485888</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01770023213931857</v>
+        <v>0.01778028675696785</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03545795852934495</v>
+        <v>0.03620306606280379</v>
       </c>
     </row>
     <row r="23">
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8054</v>
+        <v>7168</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.00284961419365243</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01133126060905497</v>
+        <v>0.01008407613106997</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>266</v>
@@ -2106,19 +2106,19 @@
         <v>279181</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>255875</v>
+        <v>257566</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>305319</v>
+        <v>302453</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4978584764102078</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4562974370094054</v>
+        <v>0.4593126031021874</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5444695905135752</v>
+        <v>0.5393590659589794</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>268</v>
@@ -2127,19 +2127,19 @@
         <v>281207</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>254081</v>
+        <v>254859</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>311516</v>
+        <v>314588</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.221154466534368</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1998214439047515</v>
+        <v>0.2004333387949746</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2449909894191591</v>
+        <v>0.2474072585517775</v>
       </c>
     </row>
     <row r="24">
@@ -2400,19 +2400,19 @@
         <v>46364</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32209</v>
+        <v>34723</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58186</v>
+        <v>61785</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1870052383016963</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1299122336002461</v>
+        <v>0.1400496730425716</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.234686832166701</v>
+        <v>0.2492033755830823</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -2421,19 +2421,19 @@
         <v>28732</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18892</v>
+        <v>19548</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40639</v>
+        <v>40288</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1170564849264631</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07696697150412687</v>
+        <v>0.07963867182211229</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1655637100531747</v>
+        <v>0.1641348948611261</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -2442,19 +2442,19 @@
         <v>75097</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60616</v>
+        <v>59592</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95532</v>
+        <v>92186</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1522061626107958</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1228570977185794</v>
+        <v>0.1207814886449498</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1936253775523918</v>
+        <v>0.1868430877097063</v>
       </c>
     </row>
     <row r="5">
@@ -2471,19 +2471,19 @@
         <v>158874</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>142257</v>
+        <v>141374</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>175731</v>
+        <v>174645</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6408004348912428</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5737800942958509</v>
+        <v>0.5702165702663533</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7087908614974874</v>
+        <v>0.7044137121087523</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -2492,19 +2492,19 @@
         <v>56128</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43879</v>
+        <v>43393</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70253</v>
+        <v>70650</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2286667589960244</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1787634344546137</v>
+        <v>0.1767850288366247</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2862115424172464</v>
+        <v>0.2878320971732678</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>198</v>
@@ -2513,19 +2513,19 @@
         <v>215002</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>189877</v>
+        <v>192420</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>237404</v>
+        <v>237898</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4357664594419422</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3848432430051284</v>
+        <v>0.3899985147593331</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4811721331539737</v>
+        <v>0.4821741860434158</v>
       </c>
     </row>
     <row r="6">
@@ -2542,19 +2542,19 @@
         <v>39653</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27608</v>
+        <v>27927</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52221</v>
+        <v>53167</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1599380423855893</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1113533569607821</v>
+        <v>0.1126404566889394</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2106284583190927</v>
+        <v>0.2144439663653106</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>51</v>
@@ -2563,19 +2563,19 @@
         <v>55752</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>44006</v>
+        <v>42823</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>71332</v>
+        <v>71009</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2271369827864887</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1792825763750823</v>
+        <v>0.1744628275846831</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2906095608885751</v>
+        <v>0.2892918658736351</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>86</v>
@@ -2584,19 +2584,19 @@
         <v>95406</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>78749</v>
+        <v>78573</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>116052</v>
+        <v>116931</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1933691029909837</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.159609825862517</v>
+        <v>0.1592518686730112</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2352152213255398</v>
+        <v>0.2369972167479043</v>
       </c>
     </row>
     <row r="7">
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15368</v>
+        <v>11942</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01225628442147165</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06198344871878143</v>
+        <v>0.04816765613934398</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>99</v>
@@ -2634,19 +2634,19 @@
         <v>107944</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>90654</v>
+        <v>91403</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>124199</v>
+        <v>124721</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4397671236014691</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3693264294381607</v>
+        <v>0.3723800593801248</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5059925938479489</v>
+        <v>0.5081158782174945</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -2655,19 +2655,19 @@
         <v>110983</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>91815</v>
+        <v>92202</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>132595</v>
+        <v>132500</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2249403042709606</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1860919329192292</v>
+        <v>0.1868748910436824</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2687453791227554</v>
+        <v>0.2685523921993156</v>
       </c>
     </row>
     <row r="8">
@@ -2688,19 +2688,19 @@
         <v>38940</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28216</v>
+        <v>27093</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>54199</v>
+        <v>51905</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.155807325287836</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1128973924677465</v>
+        <v>0.108404126986935</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2168611704412333</v>
+        <v>0.2076810465996059</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -2709,19 +2709,19 @@
         <v>25650</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16999</v>
+        <v>16777</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37527</v>
+        <v>37772</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1049828334452536</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06957624653298815</v>
+        <v>0.06866776533788567</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1535961510286726</v>
+        <v>0.1545956834612555</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>58</v>
@@ -2730,19 +2730,19 @@
         <v>64590</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>51083</v>
+        <v>49044</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>82229</v>
+        <v>82953</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.13068302738597</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.103354552200156</v>
+        <v>0.09922928252812609</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1663711147222069</v>
+        <v>0.1678365524666609</v>
       </c>
     </row>
     <row r="9">
@@ -2759,19 +2759,19 @@
         <v>192251</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>176219</v>
+        <v>176813</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>205362</v>
+        <v>206291</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7692298359799189</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7050858578924779</v>
+        <v>0.7074601041695082</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8216917168451076</v>
+        <v>0.825406906288676</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>72</v>
@@ -2780,19 +2780,19 @@
         <v>78629</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>62355</v>
+        <v>64452</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>94264</v>
+        <v>93450</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3218232503312667</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2552123271093825</v>
+        <v>0.2637975033304644</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3858152042813994</v>
+        <v>0.3824810759951426</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>247</v>
@@ -2801,19 +2801,19 @@
         <v>270880</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>247295</v>
+        <v>247585</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>293334</v>
+        <v>293393</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5480613415479575</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5003431637267061</v>
+        <v>0.5009304706910499</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.59349208420981</v>
+        <v>0.5936111563852183</v>
       </c>
     </row>
     <row r="10">
@@ -2830,19 +2830,19 @@
         <v>18735</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11258</v>
+        <v>10697</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29931</v>
+        <v>28413</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0749628387322451</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04504490771174718</v>
+        <v>0.04280141622955445</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1197584129789971</v>
+        <v>0.1136872682584425</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -2851,19 +2851,19 @@
         <v>30632</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21919</v>
+        <v>21399</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42226</v>
+        <v>43943</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1253755494553069</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08971116137565435</v>
+        <v>0.08758228884451059</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.172825269459488</v>
+        <v>0.1798556975529681</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -2872,19 +2872,19 @@
         <v>49368</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36512</v>
+        <v>35026</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66158</v>
+        <v>63790</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09988357903536037</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07387367331540919</v>
+        <v>0.07086718273504328</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1338544728949284</v>
+        <v>0.1290644239807937</v>
       </c>
     </row>
     <row r="11">
@@ -2914,19 +2914,19 @@
         <v>112662</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>96207</v>
+        <v>97639</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>128620</v>
+        <v>129302</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4611148404546274</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3937647827081817</v>
+        <v>0.3996288992971226</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.526431689549452</v>
+        <v>0.5292227771793088</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>108</v>
@@ -2935,19 +2935,19 @@
         <v>112662</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>94085</v>
+        <v>93885</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>132794</v>
+        <v>133280</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2279449572154308</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1903584555731611</v>
+        <v>0.1899541776580309</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2686779544801889</v>
+        <v>0.2696613888080854</v>
       </c>
     </row>
     <row r="12">
@@ -2968,19 +2968,19 @@
         <v>45086</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32343</v>
+        <v>32609</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>59963</v>
+        <v>60851</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1744197663355544</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1251196457941488</v>
+        <v>0.1261497385942075</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2319700395057161</v>
+        <v>0.2354048722751488</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -2989,19 +2989,19 @@
         <v>12129</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6179</v>
+        <v>6100</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20562</v>
+        <v>19749</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06980392146778994</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03556210216009972</v>
+        <v>0.03510634380523698</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1183432920085567</v>
+        <v>0.1136635285112809</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>50</v>
@@ -3010,19 +3010,19 @@
         <v>57215</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>44302</v>
+        <v>42853</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>74507</v>
+        <v>74946</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1323668530724341</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1024929588681232</v>
+        <v>0.09914040364753959</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1723715388379156</v>
+        <v>0.1733875269511692</v>
       </c>
     </row>
     <row r="13">
@@ -3039,19 +3039,19 @@
         <v>212525</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>197745</v>
+        <v>196971</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>225532</v>
+        <v>225092</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8221658136780381</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7649870962870683</v>
+        <v>0.7619941821613261</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.87248622064404</v>
+        <v>0.8707818424323501</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -3060,19 +3060,19 @@
         <v>89974</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76372</v>
+        <v>76120</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102807</v>
+        <v>103051</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5178279954390975</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4395438152537969</v>
+        <v>0.4380970396784853</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5916865195281988</v>
+        <v>0.5930929857203059</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>278</v>
@@ -3081,19 +3081,19 @@
         <v>302498</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>279892</v>
+        <v>279665</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>321040</v>
+        <v>321484</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6998297383993208</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6475312877503909</v>
+        <v>0.6470062539090565</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7427279650509216</v>
+        <v>0.7437536989574574</v>
       </c>
     </row>
     <row r="14">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4520</v>
+        <v>4428</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003414419986407553</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0174842144121893</v>
+        <v>0.0171291316252055</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -3131,19 +3131,19 @@
         <v>6207</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2108</v>
+        <v>2097</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12805</v>
+        <v>12877</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03572268280717645</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01213256686744529</v>
+        <v>0.01207066492752788</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07369851876046837</v>
+        <v>0.07411187308611658</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -3152,19 +3152,19 @@
         <v>7089</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3053</v>
+        <v>2976</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13523</v>
+        <v>14998</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01640152127877148</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007062367276849147</v>
+        <v>0.006884782577531709</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03128580995452786</v>
+        <v>0.03469792872663501</v>
       </c>
     </row>
     <row r="15">
@@ -3194,19 +3194,19 @@
         <v>74764</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>61006</v>
+        <v>63249</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>87929</v>
+        <v>87784</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4302888252946719</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3511068671605008</v>
+        <v>0.364020664540124</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5060582082436416</v>
+        <v>0.5052275140128185</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>68</v>
@@ -3215,19 +3215,19 @@
         <v>74763</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>59734</v>
+        <v>60234</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>93636</v>
+        <v>91323</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1729651820054495</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1381945150834991</v>
+        <v>0.139352204399809</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2166274824718699</v>
+        <v>0.2112758914436257</v>
       </c>
     </row>
     <row r="16">
@@ -3248,19 +3248,19 @@
         <v>12558</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7224</v>
+        <v>6800</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21879</v>
+        <v>20861</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1170449243045081</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06732419566698263</v>
+        <v>0.06337915732484255</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2039099038249816</v>
+        <v>0.1944203080731811</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -3269,19 +3269,19 @@
         <v>11898</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6157</v>
+        <v>5486</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20763</v>
+        <v>20628</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1518820053848882</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07859278935530159</v>
+        <v>0.070028835911274</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2650436430952721</v>
+        <v>0.2633219414715762</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -3290,19 +3290,19 @@
         <v>24457</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15813</v>
+        <v>15538</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35538</v>
+        <v>36109</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1317463082254034</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08518212429358499</v>
+        <v>0.0837044890868831</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1914424351951566</v>
+        <v>0.1945181939461479</v>
       </c>
     </row>
     <row r="17">
@@ -3319,19 +3319,19 @@
         <v>94738</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>85417</v>
+        <v>86435</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>100072</v>
+        <v>100496</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8829550756954919</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7960900961750181</v>
+        <v>0.8055796919268198</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9326758043330173</v>
+        <v>0.9366208426751578</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -3340,19 +3340,19 @@
         <v>39209</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30379</v>
+        <v>29845</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>49015</v>
+        <v>48125</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5005085503556002</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3877857474007261</v>
+        <v>0.3809687785623062</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6256817581220843</v>
+        <v>0.6143170158712735</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>117</v>
@@ -3361,19 +3361,19 @@
         <v>133947</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>120264</v>
+        <v>120104</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>145661</v>
+        <v>145928</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7215611522131747</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6478518289173425</v>
+        <v>0.6469925706799992</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7846611002758075</v>
+        <v>0.7861038676231061</v>
       </c>
     </row>
     <row r="18">
@@ -3403,19 +3403,19 @@
         <v>3484</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9341</v>
+        <v>9778</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04447614207799498</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01205081425228052</v>
+        <v>0.01209130709586515</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1192384704039683</v>
+        <v>0.1248199730056721</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -3424,19 +3424,19 @@
         <v>3484</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>8997</v>
+        <v>9207</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01876910521005551</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.005057216623580276</v>
+        <v>0.005106118862002333</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04846760159731539</v>
+        <v>0.04959726337797689</v>
       </c>
     </row>
     <row r="19">
@@ -3466,19 +3466,19 @@
         <v>25813</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17703</v>
+        <v>17794</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34999</v>
+        <v>34791</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3295045470420025</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2259798225329218</v>
+        <v>0.2271419243676326</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4467626236596889</v>
+        <v>0.4441103231302368</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -3487,19 +3487,19 @@
         <v>25813</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16858</v>
+        <v>16954</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36449</v>
+        <v>37098</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1390522024094998</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09081523949796295</v>
+        <v>0.0913270914005785</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1963496240586508</v>
+        <v>0.1998441650422408</v>
       </c>
     </row>
     <row r="20">
@@ -3520,19 +3520,19 @@
         <v>142949</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>122650</v>
+        <v>120182</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>167771</v>
+        <v>166221</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1655185286744814</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1420143266746604</v>
+        <v>0.1391567624157687</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1942588401322881</v>
+        <v>0.192463701889604</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>69</v>
@@ -3541,19 +3541,19 @@
         <v>78409</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>62894</v>
+        <v>62385</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>98739</v>
+        <v>97439</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1056907497720592</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08477732241022168</v>
+        <v>0.08409186731306109</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1330939199434469</v>
+        <v>0.1313422030715861</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>198</v>
@@ -3562,19 +3562,19 @@
         <v>221358</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>194156</v>
+        <v>192604</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>250345</v>
+        <v>250715</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1378735038008755</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1209306836710693</v>
+        <v>0.1199637080475537</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1559279344216579</v>
+        <v>0.1561585573473643</v>
       </c>
     </row>
     <row r="21">
@@ -3591,19 +3591,19 @@
         <v>658387</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>631467</v>
+        <v>630571</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>686974</v>
+        <v>684519</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7623339504200045</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.731164644697011</v>
+        <v>0.7301271010793092</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7954351750774707</v>
+        <v>0.7925918197808305</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>244</v>
@@ -3612,19 +3612,19 @@
         <v>263940</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>238118</v>
+        <v>237396</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>290658</v>
+        <v>291989</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3557754190463189</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3209680563531616</v>
+        <v>0.319995058341196</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3917899679668985</v>
+        <v>0.3935835986042766</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>840</v>
@@ -3633,19 +3633,19 @@
         <v>922326</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>879067</v>
+        <v>880168</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>961028</v>
+        <v>963454</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5744727107317765</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5475288450659267</v>
+        <v>0.5482144605845012</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5985779583999118</v>
+        <v>0.6000888972370176</v>
       </c>
     </row>
     <row r="22">
@@ -3662,19 +3662,19 @@
         <v>59271</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45662</v>
+        <v>43607</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>77676</v>
+        <v>74921</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06862906376094426</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05287163432261634</v>
+        <v>0.05049180917092331</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0899401837040531</v>
+        <v>0.08675013535816237</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>88</v>
@@ -3683,19 +3683,19 @@
         <v>96076</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>77487</v>
+        <v>79859</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>115498</v>
+        <v>116854</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1295045296991168</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1044477155603784</v>
+        <v>0.1076456492289651</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1556849603409394</v>
+        <v>0.157512146213266</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>140</v>
@@ -3704,19 +3704,19 @@
         <v>155347</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>131812</v>
+        <v>132096</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>181632</v>
+        <v>180665</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0967582004417144</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08209931549498127</v>
+        <v>0.08227626244988058</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1131296841435996</v>
+        <v>0.1125274559257151</v>
       </c>
     </row>
     <row r="23">
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11545</v>
+        <v>10379</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003518457144569853</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01336812808528006</v>
+        <v>0.01201817891806631</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>299</v>
@@ -3754,19 +3754,19 @@
         <v>321182</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>295726</v>
+        <v>294961</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>348188</v>
+        <v>350179</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4329345586301643</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3986208772459436</v>
+        <v>0.3975902835998097</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4693361505660119</v>
+        <v>0.4720200826783853</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>301</v>
@@ -3775,19 +3775,19 @@
         <v>324221</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>293032</v>
+        <v>291583</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>358084</v>
+        <v>357878</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2019416482521297</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1825158303036998</v>
+        <v>0.1816127818126448</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2230335408111323</v>
+        <v>0.2229051711339648</v>
       </c>
     </row>
     <row r="24">
@@ -4048,19 +4048,19 @@
         <v>43239</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32139</v>
+        <v>32648</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56816</v>
+        <v>57429</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1453318786365726</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1080246733870169</v>
+        <v>0.1097358738997622</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1909670001555982</v>
+        <v>0.1930262648935883</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -4069,19 +4069,19 @@
         <v>23679</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15153</v>
+        <v>14287</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34370</v>
+        <v>35112</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08204421042156197</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0525051004542496</v>
+        <v>0.04950365068487785</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1190868883511121</v>
+        <v>0.1216583957897105</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -4090,19 +4090,19 @@
         <v>66918</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51788</v>
+        <v>52325</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82322</v>
+        <v>84766</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1141689868985974</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08835603099571797</v>
+        <v>0.08927248199938287</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1404509356260126</v>
+        <v>0.1446195879655093</v>
       </c>
     </row>
     <row r="5">
@@ -4119,19 +4119,19 @@
         <v>215964</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>199808</v>
+        <v>198744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>229443</v>
+        <v>230213</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7258842479635715</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6715825851883813</v>
+        <v>0.6680071367748691</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7711886558680003</v>
+        <v>0.7737784710132674</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -4140,19 +4140,19 @@
         <v>94848</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>79348</v>
+        <v>78469</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>112458</v>
+        <v>112469</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3286355916378864</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2749329683451073</v>
+        <v>0.2718866438140246</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3896522760441781</v>
+        <v>0.3896927190259669</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>302</v>
@@ -4161,19 +4161,19 @@
         <v>310811</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>285626</v>
+        <v>286729</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>335660</v>
+        <v>334859</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5302787339781899</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4873104369925794</v>
+        <v>0.4891918593590444</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5726741769881574</v>
+        <v>0.571307222529725</v>
       </c>
     </row>
     <row r="6">
@@ -4190,19 +4190,19 @@
         <v>38316</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26959</v>
+        <v>26960</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51566</v>
+        <v>51987</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1287838733998558</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09061155867415339</v>
+        <v>0.09061691453872714</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1733192163052007</v>
+        <v>0.1747353827478749</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>58</v>
@@ -4211,19 +4211,19 @@
         <v>64832</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>51758</v>
+        <v>51237</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>82279</v>
+        <v>80480</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.224634448977803</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1793368011509129</v>
+        <v>0.1775303162028369</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2850863798505446</v>
+        <v>0.2788550423510572</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>94</v>
@@ -4232,19 +4232,19 @@
         <v>103147</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>84661</v>
+        <v>83994</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>122309</v>
+        <v>123459</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1759807633154448</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.144441993951717</v>
+        <v>0.1433039092296768</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2086726870728731</v>
+        <v>0.2106351641332033</v>
       </c>
     </row>
     <row r="7">
@@ -4274,19 +4274,19 @@
         <v>107975</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>90506</v>
+        <v>90892</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127510</v>
+        <v>126789</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3741200220086776</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3135929230678494</v>
+        <v>0.3149291706668744</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4418065437337186</v>
+        <v>0.4393093147456926</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>91</v>
@@ -4295,19 +4295,19 @@
         <v>107975</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>88628</v>
+        <v>88690</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>129889</v>
+        <v>127736</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.18421695840107</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1512085942795073</v>
+        <v>0.1513143643168878</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2216044206969034</v>
+        <v>0.2179315855682006</v>
       </c>
     </row>
     <row r="8">
@@ -4328,19 +4328,19 @@
         <v>19067</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11573</v>
+        <v>11348</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29381</v>
+        <v>30237</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07998680731219021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04854876249793145</v>
+        <v>0.04760709885078614</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1232574987924519</v>
+        <v>0.1268468802007533</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -4349,19 +4349,19 @@
         <v>11317</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5475</v>
+        <v>5277</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19957</v>
+        <v>19903</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05720657591669794</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02767765142411055</v>
+        <v>0.02667443951355413</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1008868670603195</v>
+        <v>0.1006091492667255</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -4370,19 +4370,19 @@
         <v>30383</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20323</v>
+        <v>20958</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42654</v>
+        <v>42604</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06965566621298909</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04659207089780427</v>
+        <v>0.04804723036086632</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09778632417686239</v>
+        <v>0.09767219282395211</v>
       </c>
     </row>
     <row r="9">
@@ -4399,19 +4399,19 @@
         <v>205637</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>193798</v>
+        <v>192834</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>215923</v>
+        <v>215182</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8626672286273636</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8129979071919506</v>
+        <v>0.8089575884001814</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9058160063353778</v>
+        <v>0.9027080828675291</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>77</v>
@@ -4420,19 +4420,19 @@
         <v>86285</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>72050</v>
+        <v>72336</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>101434</v>
+        <v>101732</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.436177847788228</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3642190006361437</v>
+        <v>0.3656658871559379</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5127583283479917</v>
+        <v>0.5142671904484756</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>290</v>
@@ -4441,19 +4441,19 @@
         <v>291922</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>272497</v>
+        <v>271453</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>311499</v>
+        <v>311358</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6692485624924837</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6247156482864932</v>
+        <v>0.6223217473864375</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7141296855960217</v>
+        <v>0.7138072625449564</v>
       </c>
     </row>
     <row r="10">
@@ -4470,19 +4470,19 @@
         <v>12735</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6627</v>
+        <v>7170</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20966</v>
+        <v>21284</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05342555093546297</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02780113472152947</v>
+        <v>0.03008076824332436</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08795349639664819</v>
+        <v>0.08928689317956315</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -4491,19 +4491,19 @@
         <v>24957</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16949</v>
+        <v>15987</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37111</v>
+        <v>35748</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1261599976450067</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0856806222972514</v>
+        <v>0.0808135204579909</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1875979682137212</v>
+        <v>0.1807102899369186</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -4512,19 +4512,19 @@
         <v>37692</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26759</v>
+        <v>26835</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51076</v>
+        <v>50074</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08641160005335354</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06134563838603233</v>
+        <v>0.06152177984820174</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.117095443161844</v>
+        <v>0.1147966859190497</v>
       </c>
     </row>
     <row r="11">
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4704</v>
+        <v>4705</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.003920413124983246</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01973434881798836</v>
+        <v>0.0197387760160291</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>64</v>
@@ -4562,19 +4562,19 @@
         <v>77162</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>62616</v>
+        <v>63395</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>91419</v>
+        <v>92584</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3900639103057162</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3165281599223064</v>
+        <v>0.3204686941061014</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4621302348580506</v>
+        <v>0.4680189572096647</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>65</v>
@@ -4583,19 +4583,19 @@
         <v>78097</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>60324</v>
+        <v>62248</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>94670</v>
+        <v>96797</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.179041678780894</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1382963532711881</v>
+        <v>0.1427080444505865</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2170370844484671</v>
+        <v>0.2219126056954174</v>
       </c>
     </row>
     <row r="12">
@@ -4616,19 +4616,19 @@
         <v>14117</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7093</v>
+        <v>7339</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23026</v>
+        <v>23476</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06609059137935683</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0332049589876563</v>
+        <v>0.03435958559638937</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1078007857999774</v>
+        <v>0.1099085002668485</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -4637,19 +4637,19 @@
         <v>11759</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6503</v>
+        <v>6348</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21051</v>
+        <v>20755</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07536631657052363</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0416798218519191</v>
+        <v>0.04068713018931303</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1349192395644273</v>
+        <v>0.1330219274485587</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -4658,19 +4658,19 @@
         <v>25876</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16737</v>
+        <v>17184</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>37158</v>
+        <v>37582</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0700060385503264</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04528061378212327</v>
+        <v>0.04648953562547724</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1005294657677371</v>
+        <v>0.1016773837028546</v>
       </c>
     </row>
     <row r="13">
@@ -4687,19 +4687,19 @@
         <v>193418</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>183766</v>
+        <v>182175</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>202473</v>
+        <v>201206</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9055208461650465</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8603313031617356</v>
+        <v>0.8528843490173569</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9479096816841651</v>
+        <v>0.9419777950946834</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -4708,19 +4708,19 @@
         <v>83186</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69783</v>
+        <v>69827</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96727</v>
+        <v>96274</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.533155641624962</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4472576617104023</v>
+        <v>0.4475354794388927</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6199474558817885</v>
+        <v>0.6170396642559705</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>268</v>
@@ -4729,19 +4729,19 @@
         <v>276604</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>258723</v>
+        <v>257592</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>293717</v>
+        <v>292750</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7483389270551102</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6999626720510395</v>
+        <v>0.6969039238797208</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.794636542144564</v>
+        <v>0.7920218324403528</v>
       </c>
     </row>
     <row r="14">
@@ -4758,19 +4758,19 @@
         <v>6064</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2021</v>
+        <v>2133</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13573</v>
+        <v>13402</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02838856245559666</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009460174793586648</v>
+        <v>0.009984678988952486</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0635425849778011</v>
+        <v>0.06274236330997526</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -4779,19 +4779,19 @@
         <v>13535</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7487</v>
+        <v>6578</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22718</v>
+        <v>22210</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0867489281916483</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04798789885230312</v>
+        <v>0.04215792632545051</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.145607119428994</v>
+        <v>0.1423521711384417</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -4800,19 +4800,19 @@
         <v>19599</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11989</v>
+        <v>11440</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>33067</v>
+        <v>32059</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05302350195720869</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03243578675145529</v>
+        <v>0.0309503769706978</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0894604422679586</v>
+        <v>0.08673448532408605</v>
       </c>
     </row>
     <row r="15">
@@ -4842,19 +4842,19 @@
         <v>49593</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>37136</v>
+        <v>37246</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>62827</v>
+        <v>63028</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3178497998410393</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2380162161242809</v>
+        <v>0.2387211833550695</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4026725918148692</v>
+        <v>0.4039621548772564</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>40</v>
@@ -4863,19 +4863,19 @@
         <v>49592</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>36565</v>
+        <v>37228</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>64913</v>
+        <v>64566</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1341700054639385</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09892592984555772</v>
+        <v>0.1007183369889544</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1756180447587697</v>
+        <v>0.1746809872234987</v>
       </c>
     </row>
     <row r="16">
@@ -4896,19 +4896,19 @@
         <v>10020</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5092</v>
+        <v>4989</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17621</v>
+        <v>18538</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07295434197004905</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03707733123422519</v>
+        <v>0.03632115811874884</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1282933479369376</v>
+        <v>0.1349708352459342</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -4917,19 +4917,19 @@
         <v>6849</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3081</v>
+        <v>2337</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15112</v>
+        <v>13286</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07614916571614393</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03425481248031678</v>
+        <v>0.02598788983877705</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1680132649985907</v>
+        <v>0.1477175738689459</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -4938,19 +4938,19 @@
         <v>16869</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10094</v>
+        <v>10087</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26362</v>
+        <v>26801</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07421859774046609</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04441080821100103</v>
+        <v>0.04438035155858803</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1159829329281522</v>
+        <v>0.1179135218440156</v>
       </c>
     </row>
     <row r="17">
@@ -4967,19 +4967,19 @@
         <v>125070</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>116647</v>
+        <v>115526</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>130990</v>
+        <v>130561</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9106117055981479</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8492848202413974</v>
+        <v>0.8411269097291861</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9537152493608269</v>
+        <v>0.9505895948170375</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -4988,19 +4988,19 @@
         <v>52279</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42063</v>
+        <v>40922</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62208</v>
+        <v>61547</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5812471127962461</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4676682527982409</v>
+        <v>0.4549738932731845</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6916347105013165</v>
+        <v>0.6842939295488837</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>168</v>
@@ -5009,19 +5009,19 @@
         <v>177350</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>162828</v>
+        <v>162456</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>189744</v>
+        <v>189614</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7802755368095434</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.716384438710809</v>
+        <v>0.7147495908622422</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8348064252707306</v>
+        <v>0.8342359841494743</v>
       </c>
     </row>
     <row r="18">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6944</v>
+        <v>6888</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01643395243180312</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05055501036506497</v>
+        <v>0.05015205550023813</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -5059,19 +5059,19 @@
         <v>4135</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1062</v>
+        <v>1099</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9504</v>
+        <v>10456</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0459717092835854</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01180494671426506</v>
+        <v>0.01221706972466353</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1056695106740463</v>
+        <v>0.1162569230405059</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -5080,19 +5080,19 @@
         <v>6392</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13135</v>
+        <v>12759</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02812263466057614</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.009552955405290532</v>
+        <v>0.009561123429100291</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05778808784781172</v>
+        <v>0.05613616656120091</v>
       </c>
     </row>
     <row r="19">
@@ -5122,19 +5122,19 @@
         <v>27649</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18303</v>
+        <v>19039</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37907</v>
+        <v>36867</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3074019078278883</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2034927131590359</v>
+        <v>0.2116786957470907</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4214610911544578</v>
+        <v>0.4098933992111581</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -5143,19 +5143,19 @@
         <v>27649</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18449</v>
+        <v>18321</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40167</v>
+        <v>39671</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1216450942821664</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08116800755566551</v>
+        <v>0.08060389540340278</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1767213854599808</v>
+        <v>0.1745400142275302</v>
       </c>
     </row>
     <row r="20">
@@ -5176,19 +5176,19 @@
         <v>86443</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>68648</v>
+        <v>68943</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>104981</v>
+        <v>104948</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0974727759875034</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07740797767998521</v>
+        <v>0.07774034877922949</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1183768553864306</v>
+        <v>0.1183399744947797</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -5197,19 +5197,19 @@
         <v>53603</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40586</v>
+        <v>39241</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>69261</v>
+        <v>70238</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07318903016252094</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05541476905932541</v>
+        <v>0.05357928390471332</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09456765341659003</v>
+        <v>0.09590202411023141</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>127</v>
@@ -5218,19 +5218,19 @@
         <v>140046</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>117346</v>
+        <v>119215</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>164117</v>
+        <v>166297</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08648897973254423</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07247015765136415</v>
+        <v>0.07362451242122098</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.101354574636771</v>
+        <v>0.1027005954278626</v>
       </c>
     </row>
     <row r="21">
@@ -5247,19 +5247,19 @@
         <v>740089</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>719176</v>
+        <v>718533</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>763582</v>
+        <v>763364</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8345258334785104</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8109440454940193</v>
+        <v>0.8102186310680987</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8610158874176732</v>
+        <v>0.8607703729550501</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>274</v>
@@ -5268,19 +5268,19 @@
         <v>316597</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>287395</v>
+        <v>287859</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>345055</v>
+        <v>345828</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4322745426848305</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3924026869351621</v>
+        <v>0.3930357465694357</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4711310586194438</v>
+        <v>0.4721854864045032</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1028</v>
@@ -5289,19 +5289,19 @@
         <v>1056686</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1016975</v>
+        <v>1016159</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1097169</v>
+        <v>1096749</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6525833006742532</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.628058542139465</v>
+        <v>0.6275542972917674</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6775842646353626</v>
+        <v>0.6773252169656645</v>
       </c>
     </row>
     <row r="22">
@@ -5318,19 +5318,19 @@
         <v>59372</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46394</v>
+        <v>44081</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>77144</v>
+        <v>75181</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06694761898721839</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05231448647396206</v>
+        <v>0.04970612554445027</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08698790083494153</v>
+        <v>0.08477413571113908</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>98</v>
@@ -5339,19 +5339,19 @@
         <v>107459</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>88826</v>
+        <v>89124</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>126279</v>
+        <v>129640</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1467214591450677</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1212808980836507</v>
+        <v>0.1216883445488272</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1724181642708113</v>
+        <v>0.1770078220053582</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>153</v>
@@ -5360,19 +5360,19 @@
         <v>166830</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>140463</v>
+        <v>143379</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>192986</v>
+        <v>193297</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1030301744992294</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08674661211864439</v>
+        <v>0.08854710639314819</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1191831464817583</v>
+        <v>0.1193754586947205</v>
       </c>
     </row>
     <row r="23">
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4670</v>
+        <v>5610</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.00105377154676782</v>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.005265778298482232</v>
+        <v>0.006326200050996837</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>218</v>
@@ -5410,19 +5410,19 @@
         <v>262378</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>235239</v>
+        <v>233198</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>289826</v>
+        <v>289079</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.358245604464536</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3211906691781678</v>
+        <v>0.3184035569442797</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3957224021146833</v>
+        <v>0.3947027421439508</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>219</v>
@@ -5431,19 +5431,19 @@
         <v>263313</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>231629</v>
+        <v>233109</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>296068</v>
+        <v>297444</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1626154327904783</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.143048101004816</v>
+        <v>0.1439622605074147</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1828442038224082</v>
+        <v>0.1836937958199409</v>
       </c>
     </row>
     <row r="24">
@@ -5704,19 +5704,19 @@
         <v>4476</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11518</v>
+        <v>11507</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03120063790499121</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01109669186835662</v>
+        <v>0.01102886421417754</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08028949383491966</v>
+        <v>0.08021321901118654</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>141</v>
@@ -5725,19 +5725,19 @@
         <v>79691</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69163</v>
+        <v>68707</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89688</v>
+        <v>90509</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4523359913209545</v>
+        <v>0.4523359913209544</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3925768365851822</v>
+        <v>0.389989825605104</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5090791600593864</v>
+        <v>0.5137438037086804</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>146</v>
@@ -5746,19 +5746,19 @@
         <v>84167</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>71568</v>
+        <v>72697</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96919</v>
+        <v>97352</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2633214308536463</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2239062016530712</v>
+        <v>0.227438558569253</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3032168620780498</v>
+        <v>0.3045711717575759</v>
       </c>
     </row>
     <row r="5">
@@ -5775,19 +5775,19 @@
         <v>35448</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26081</v>
+        <v>25512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44554</v>
+        <v>44800</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2470937846772044</v>
+        <v>0.2470937846772045</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.181799119229792</v>
+        <v>0.1778338511349471</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3105663686908681</v>
+        <v>0.3122862040661167</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -5796,19 +5796,19 @@
         <v>19540</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14016</v>
+        <v>14148</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26276</v>
+        <v>26339</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1109112127504499</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07955771037320675</v>
+        <v>0.08030449554733243</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1491475146262475</v>
+        <v>0.1495026844841497</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>78</v>
@@ -5817,19 +5817,19 @@
         <v>54988</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>44865</v>
+        <v>43236</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68726</v>
+        <v>65992</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1720328658419175</v>
+        <v>0.1720328658419174</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1403645146611954</v>
+        <v>0.1352653385155702</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2150140616286788</v>
+        <v>0.2064619524027539</v>
       </c>
     </row>
     <row r="6">
@@ -5846,19 +5846,19 @@
         <v>67492</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>57206</v>
+        <v>56612</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>78630</v>
+        <v>79844</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4704588028737484</v>
+        <v>0.4704588028737486</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3987587512664316</v>
+        <v>0.3946193879905397</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5481015442953743</v>
+        <v>0.5565662606283297</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>87</v>
@@ -5867,19 +5867,19 @@
         <v>58291</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>49090</v>
+        <v>48903</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>70104</v>
+        <v>69001</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3308679628989533</v>
+        <v>0.3308679628989531</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2786435872670245</v>
+        <v>0.2775827473737786</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3979230719397285</v>
+        <v>0.3916567145958956</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>167</v>
@@ -5888,19 +5888,19 @@
         <v>125783</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>111127</v>
+        <v>111105</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>142043</v>
+        <v>139966</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3935193196399239</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3476682016594148</v>
+        <v>0.3476005676490377</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4443907842677481</v>
+        <v>0.4378939854580913</v>
       </c>
     </row>
     <row r="7">
@@ -5917,19 +5917,19 @@
         <v>36044</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26833</v>
+        <v>26776</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46349</v>
+        <v>47894</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2512467745440559</v>
+        <v>0.251246774544056</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1870408849651546</v>
+        <v>0.1866488650573784</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3230842893028887</v>
+        <v>0.3338535972594452</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -5938,19 +5938,19 @@
         <v>18654</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13185</v>
+        <v>12577</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26180</v>
+        <v>26025</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1058848330296425</v>
+        <v>0.1058848330296424</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07484167591922752</v>
+        <v>0.07138700599020265</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1486001505800245</v>
+        <v>0.1477195893500279</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>69</v>
@@ -5959,19 +5959,19 @@
         <v>54698</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44202</v>
+        <v>42278</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68135</v>
+        <v>66498</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1711263836645124</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.138289163433482</v>
+        <v>0.1322711833501008</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2131644383515845</v>
+        <v>0.208045099578355</v>
       </c>
     </row>
     <row r="8">
@@ -5995,16 +5995,16 @@
         <v>434</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5572</v>
+        <v>5753</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.006718974822848958</v>
+        <v>0.006718974822848959</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001654093926232841</v>
+        <v>0.001653136633781169</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02121721732546574</v>
+        <v>0.02190637691905414</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>256</v>
@@ -6013,19 +6013,19 @@
         <v>136167</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>123164</v>
+        <v>124291</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>147576</v>
+        <v>148300</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5149502721166923</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4657763701826539</v>
+        <v>0.4700354860789566</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5580941356600886</v>
+        <v>0.5608316968405835</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>259</v>
@@ -6034,19 +6034,19 @@
         <v>137932</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>124267</v>
+        <v>123684</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>154093</v>
+        <v>154371</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2616992171131202</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2357716485487396</v>
+        <v>0.2346660067788125</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2923617761889782</v>
+        <v>0.2928890337805386</v>
       </c>
     </row>
     <row r="9">
@@ -6063,19 +6063,19 @@
         <v>124475</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>109258</v>
+        <v>111961</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>137128</v>
+        <v>140222</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4739469496637341</v>
+        <v>0.4739469496637342</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4160071304587695</v>
+        <v>0.4262970193189877</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5221234895576486</v>
+        <v>0.5339056499874295</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>117</v>
@@ -6084,19 +6084,19 @@
         <v>66223</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>56238</v>
+        <v>56657</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>79255</v>
+        <v>76936</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2504395684685596</v>
+        <v>0.2504395684685595</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2126773991966884</v>
+        <v>0.2142638419712863</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2997217083728498</v>
+        <v>0.2909514448263764</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>283</v>
@@ -6105,19 +6105,19 @@
         <v>190698</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>173128</v>
+        <v>173843</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>210360</v>
+        <v>210303</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3618130324605599</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3284761831609962</v>
+        <v>0.3298343346853338</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3991170600484297</v>
+        <v>0.3990101694323534</v>
       </c>
     </row>
     <row r="10">
@@ -6134,19 +6134,19 @@
         <v>89970</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77871</v>
+        <v>76218</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105100</v>
+        <v>104028</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3425679974564991</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2964988204168204</v>
+        <v>0.2902055386596377</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.400175359701919</v>
+        <v>0.3960932651386803</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -6155,19 +6155,19 @@
         <v>44805</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35574</v>
+        <v>35525</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54305</v>
+        <v>54831</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1694407811082534</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1345306696068427</v>
+        <v>0.1343455115716693</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2053694702541194</v>
+        <v>0.207357411947491</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>190</v>
@@ -6176,19 +6176,19 @@
         <v>134775</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117658</v>
+        <v>116706</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>151901</v>
+        <v>151969</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2557098684774937</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2232330455313392</v>
+        <v>0.2214261376377419</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2882027705081079</v>
+        <v>0.28833103604008</v>
       </c>
     </row>
     <row r="11">
@@ -6205,19 +6205,19 @@
         <v>46425</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36247</v>
+        <v>36790</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58908</v>
+        <v>59336</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1767660780569178</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1380114867447907</v>
+        <v>0.1400818118762965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2242946955732772</v>
+        <v>0.2259261671057943</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -6226,19 +6226,19 @@
         <v>17233</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12086</v>
+        <v>11604</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24204</v>
+        <v>23516</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06516937830649483</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04570720020262528</v>
+        <v>0.043883144158715</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0915324018662315</v>
+        <v>0.08893019133196058</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>87</v>
@@ -6247,19 +6247,19 @@
         <v>63658</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>51512</v>
+        <v>51320</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>78136</v>
+        <v>76663</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1207778819488262</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0977335023360542</v>
+        <v>0.09736942421806914</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1482487426754069</v>
+        <v>0.1454536291264286</v>
       </c>
     </row>
     <row r="12">
@@ -6283,16 +6283,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7927</v>
+        <v>6274</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.006994064945686545</v>
+        <v>0.006994064945686544</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03355039421795823</v>
+        <v>0.0265540128187726</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>107</v>
@@ -6301,19 +6301,19 @@
         <v>59310</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>49815</v>
+        <v>49513</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>69783</v>
+        <v>70033</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3289527533475223</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2762881695067018</v>
+        <v>0.2746151018877073</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3870392078665343</v>
+        <v>0.3884234187430238</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>109</v>
@@ -6322,19 +6322,19 @@
         <v>60963</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>49693</v>
+        <v>50642</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>73330</v>
+        <v>73611</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1463420251752973</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1192899598552467</v>
+        <v>0.1215661190147177</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1760304975604946</v>
+        <v>0.176703531449048</v>
       </c>
     </row>
     <row r="13">
@@ -6351,19 +6351,19 @@
         <v>132491</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>119524</v>
+        <v>119276</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>145114</v>
+        <v>146732</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.560745008651762</v>
+        <v>0.5607450086517619</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.505863031225818</v>
+        <v>0.504812640111853</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6141687720100432</v>
+        <v>0.6210171286724773</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>133</v>
@@ -6372,19 +6372,19 @@
         <v>69519</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60095</v>
+        <v>60044</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79168</v>
+        <v>79523</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3855752560337469</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3333080703818674</v>
+        <v>0.3330252242549419</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4390886371099189</v>
+        <v>0.4410616183395746</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>309</v>
@@ -6393,19 +6393,19 @@
         <v>202010</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>185047</v>
+        <v>185668</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>217644</v>
+        <v>219862</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4849292328998728</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4442095025632148</v>
+        <v>0.4456987378901047</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5224588778567689</v>
+        <v>0.5277834038602239</v>
       </c>
     </row>
     <row r="14">
@@ -6422,19 +6422,19 @@
         <v>76408</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65003</v>
+        <v>64670</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>89386</v>
+        <v>88898</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3233831559431501</v>
+        <v>0.32338315594315</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2751154999170386</v>
+        <v>0.273704873943261</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3783108539111016</v>
+        <v>0.3762455613402313</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -6443,19 +6443,19 @@
         <v>37263</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29160</v>
+        <v>28848</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46091</v>
+        <v>45353</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2066743605444104</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1617291470637774</v>
+        <v>0.1600020713407944</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.255632641141759</v>
+        <v>0.2515420977240875</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>168</v>
@@ -6464,19 +6464,19 @@
         <v>113671</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>99280</v>
+        <v>99822</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>129263</v>
+        <v>127755</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2728700523508923</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2383244761344569</v>
+        <v>0.23962530276038</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3102990644534628</v>
+        <v>0.3066776483051082</v>
       </c>
     </row>
     <row r="15">
@@ -6493,19 +6493,19 @@
         <v>25725</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18346</v>
+        <v>18908</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>34483</v>
+        <v>35294</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1088777704594014</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07764607400360965</v>
+        <v>0.08002624611430119</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1459446772452942</v>
+        <v>0.1493752350912884</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>26</v>
@@ -6514,19 +6514,19 @@
         <v>14207</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9689</v>
+        <v>9023</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>20317</v>
+        <v>20314</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07879763007432043</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05373594005914111</v>
+        <v>0.05004647775769494</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1126825220682282</v>
+        <v>0.1126664836515566</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>65</v>
@@ -6535,19 +6535,19 @@
         <v>39933</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>31365</v>
+        <v>30734</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>50834</v>
+        <v>49424</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.09585868957393749</v>
+        <v>0.09585868957393753</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07529181769776436</v>
+        <v>0.07377655778704817</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1220288909544515</v>
+        <v>0.1186439857527873</v>
       </c>
     </row>
     <row r="16">
@@ -6568,19 +6568,19 @@
         <v>3748</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1123</v>
+        <v>1084</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9708</v>
+        <v>9213</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.01708287467985042</v>
+        <v>0.01708287467985043</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005118102086657666</v>
+        <v>0.00493883756241472</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04424793046475362</v>
+        <v>0.04199249537613615</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -6589,19 +6589,19 @@
         <v>30708</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23887</v>
+        <v>23706</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38256</v>
+        <v>38420</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.178190822604838</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1386108170609753</v>
+        <v>0.1375601641248687</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2219904033062259</v>
+        <v>0.2229378414841821</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -6610,19 +6610,19 @@
         <v>34456</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26666</v>
+        <v>26503</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43339</v>
+        <v>43601</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08795868298287689</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06807286428132021</v>
+        <v>0.06765541088541145</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1106361720396141</v>
+        <v>0.1113034622543497</v>
       </c>
     </row>
     <row r="17">
@@ -6639,19 +6639,19 @@
         <v>158441</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>144882</v>
+        <v>144467</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>169731</v>
+        <v>170050</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7221645521475181</v>
+        <v>0.7221645521475182</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6603655086920481</v>
+        <v>0.6584716269195561</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7736247883303963</v>
+        <v>0.7750806944663501</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>175</v>
@@ -6660,19 +6660,19 @@
         <v>99313</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>89799</v>
+        <v>88383</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>108416</v>
+        <v>108446</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5762834552027345</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5210801856473665</v>
+        <v>0.5128639985770066</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6291071591583121</v>
+        <v>0.6292833688995346</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>395</v>
@@ -6681,19 +6681,19 @@
         <v>257753</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>241593</v>
+        <v>242866</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>271149</v>
+        <v>272735</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6579874535297157</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6167345271397932</v>
+        <v>0.619983482725967</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6921850370561962</v>
+        <v>0.6962333517879855</v>
       </c>
     </row>
     <row r="18">
@@ -6710,19 +6710,19 @@
         <v>32065</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23354</v>
+        <v>23698</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>43596</v>
+        <v>44065</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1461510738240913</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1064472132066503</v>
+        <v>0.1080145825094635</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.198707479600892</v>
+        <v>0.2008437977094246</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>48</v>
@@ -6731,19 +6731,19 @@
         <v>27621</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20909</v>
+        <v>21037</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35579</v>
+        <v>36449</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1602769233813177</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1213298964252921</v>
+        <v>0.1220697914702629</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2064524511899615</v>
+        <v>0.2115051579081021</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>84</v>
@@ -6752,19 +6752,19 @@
         <v>59686</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>48884</v>
+        <v>47709</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>72697</v>
+        <v>71861</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1523654227636081</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1247908268670909</v>
+        <v>0.1217902362375069</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1855796931572807</v>
+        <v>0.1834459346771752</v>
       </c>
     </row>
     <row r="19">
@@ -6781,19 +6781,19 @@
         <v>25143</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18014</v>
+        <v>17611</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35421</v>
+        <v>34880</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1146014993485401</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0821054775777998</v>
+        <v>0.08027166214712213</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1614450120856609</v>
+        <v>0.1589828344396413</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -6802,19 +6802,19 @@
         <v>14691</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9652</v>
+        <v>9979</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21055</v>
+        <v>21304</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08524879881110989</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05601040924778783</v>
+        <v>0.0579030466542236</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1221741948663656</v>
+        <v>0.1236225698840398</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -6823,19 +6823,19 @@
         <v>39834</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30116</v>
+        <v>30778</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51984</v>
+        <v>50984</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1016884407237993</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07687991157442578</v>
+        <v>0.07856968879931291</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1327048886744406</v>
+        <v>0.1301516029234406</v>
       </c>
     </row>
     <row r="20">
@@ -6856,19 +6856,19 @@
         <v>11641</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6311</v>
+        <v>6575</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19192</v>
+        <v>19797</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01350841912471925</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00732357476641173</v>
+        <v>0.007629690371915097</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02227104483961888</v>
+        <v>0.02297215835892129</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>564</v>
@@ -6877,19 +6877,19 @@
         <v>305876</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>284850</v>
+        <v>286110</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>326289</v>
+        <v>326945</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3856054234537735</v>
+        <v>0.3856054234537734</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3590986300278019</v>
+        <v>0.3606860390886116</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4113386977400808</v>
+        <v>0.4121653474303467</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>578</v>
@@ -6898,19 +6898,19 @@
         <v>317518</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>293490</v>
+        <v>292782</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>345109</v>
+        <v>341121</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1918529518641129</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1773351029191474</v>
+        <v>0.1769071595704342</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2085246372113868</v>
+        <v>0.2061150445435594</v>
       </c>
     </row>
     <row r="21">
@@ -6927,19 +6927,19 @@
         <v>450855</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>423100</v>
+        <v>425308</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>476414</v>
+        <v>476376</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5231740962383273</v>
+        <v>0.5231740962383272</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.490967858608332</v>
+        <v>0.4935294482928992</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5528330184930623</v>
+        <v>0.5527897035870696</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>461</v>
@@ -6948,19 +6948,19 @@
         <v>254595</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>233439</v>
+        <v>236764</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>273723</v>
+        <v>273920</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3209568255292085</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2942867252996579</v>
+        <v>0.2984786956286889</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3450704932662337</v>
+        <v>0.3453190270486587</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1065</v>
@@ -6969,19 +6969,19 @@
         <v>705450</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>675025</v>
+        <v>672303</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>737954</v>
+        <v>742020</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4262522069544225</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4078687817146497</v>
+        <v>0.4062242659453816</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4458921625321497</v>
+        <v>0.4483490838558326</v>
       </c>
     </row>
     <row r="22">
@@ -6998,19 +6998,19 @@
         <v>265935</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>242755</v>
+        <v>242165</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>291235</v>
+        <v>288868</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3085923903616261</v>
+        <v>0.308592390361626</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.281694059523005</v>
+        <v>0.281009416715973</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3379507223095177</v>
+        <v>0.3352033866499931</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>269</v>
@@ -7019,19 +7019,19 @@
         <v>167980</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>150212</v>
+        <v>150455</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>186536</v>
+        <v>187169</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2117656034145638</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1893656762887645</v>
+        <v>0.1896719139739792</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2351582489963324</v>
+        <v>0.2359553723061592</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>609</v>
@@ -7040,19 +7040,19 @@
         <v>433915</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>406448</v>
+        <v>403894</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>461270</v>
+        <v>464922</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2621837176934105</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2455869592999776</v>
+        <v>0.2440438274263767</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2787121275357667</v>
+        <v>0.2809187826443121</v>
       </c>
     </row>
     <row r="23">
@@ -7069,19 +7069,19 @@
         <v>133337</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>113660</v>
+        <v>115589</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>152871</v>
+        <v>154226</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1547250942753275</v>
+        <v>0.1547250942753274</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.131891921659817</v>
+        <v>0.1341300284482549</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.177392110575105</v>
+        <v>0.1789642182308482</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>111</v>
@@ -7090,19 +7090,19 @@
         <v>64785</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>54091</v>
+        <v>53426</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>78752</v>
+        <v>77271</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08167214760245423</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06818994555239309</v>
+        <v>0.06735249130644069</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09927925483793318</v>
+        <v>0.09741204846989383</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>275</v>
@@ -7111,19 +7111,19 @@
         <v>198123</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>176297</v>
+        <v>175469</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>222214</v>
+        <v>222930</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1197111234880541</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.106523632275714</v>
+        <v>0.1060234359530758</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1342676773512651</v>
+        <v>0.1347002177205676</v>
       </c>
     </row>
     <row r="24">
